--- a/S32M2/S32M27x_TRGMUX_connectivity.xlsx
+++ b/S32M2/S32M27x_TRGMUX_connectivity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/felipe_garcia_1_nxp_com/Documents/Auto - Apps/S32M2/Reference Manual/Spreadsheets/S32M27x_Rev2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/felipe_garcia_1_nxp_com/Documents/Auto - Apps/S32M2/Pinout spredsheets/S32M27x/S32M27x_Spreadsheets_Aug2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{ECE97C6B-49B9-47FD-8FA7-9BED1B63DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB217EB6-5EB0-4B17-AD09-EDBDF0570DFA}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{ECE97C6B-49B9-47FD-8FA7-9BED1B63DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73CBDBF3-3070-4366-A472-13193EBC20A2}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="227">
   <si>
     <t>Input no.</t>
   </si>
@@ -530,9 +530,6 @@
     <t>LPSPI_1_Trigger input</t>
   </si>
   <si>
-    <t>LPSPI_2_Trigger input</t>
-  </si>
-  <si>
     <t>LPUART_0_trg_input</t>
   </si>
   <si>
@@ -861,9 +858,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -901,9 +898,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,26 +933,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,26 +968,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1194,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="8" customFormat="1" ht="35.4" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1207,10 +1170,10 @@
   <dimension ref="A1:DJ131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AR4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BT127" sqref="BT127"/>
+      <selection pane="bottomRight" activeCell="BV3" sqref="BV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1930,22 +1893,22 @@
         <v>117</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>119</v>
@@ -1954,7 +1917,7 @@
         <v>120</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>121</v>
@@ -2089,28 +2052,28 @@
         <v>164</v>
       </c>
       <c r="BJ3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BK3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BL3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BM3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BO3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BP3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BQ3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>165</v>
@@ -2121,131 +2084,131 @@
       <c r="BT3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BU3" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DG3" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="DH3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="DI3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DJ3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:114" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2411,7 +2374,7 @@
       <c r="BT4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU4" s="6" t="s">
+      <c r="BU4" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV4" s="6" t="s">
@@ -2641,7 +2604,7 @@
       <c r="BT5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU5" s="6" t="s">
+      <c r="BU5" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV5" s="6" t="s">
@@ -2811,7 +2774,7 @@
       <c r="BT6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU6" s="6" t="s">
+      <c r="BU6" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV6" s="6" t="s">
@@ -2985,7 +2948,7 @@
       <c r="BT7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU7" s="6" t="s">
+      <c r="BU7" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV7" s="6" t="s">
@@ -3061,7 +3024,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -3319,7 +3282,7 @@
       <c r="BT9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU9" s="6" t="s">
+      <c r="BU9" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV9" s="6"/>
@@ -3375,7 +3338,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -3515,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -3761,7 +3724,7 @@
       <c r="BT12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU12" s="6" t="s">
+      <c r="BU12" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV12" s="6" t="s">
@@ -3951,7 +3914,7 @@
       <c r="BT13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU13" s="6" t="s">
+      <c r="BU13" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV13" s="6" t="s">
@@ -4141,7 +4104,7 @@
       <c r="BT14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU14" s="6" t="s">
+      <c r="BU14" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV14" s="6" t="s">
@@ -4331,7 +4294,7 @@
       <c r="BT15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU15" s="6" t="s">
+      <c r="BU15" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV15" s="6" t="s">
@@ -4501,7 +4464,7 @@
       <c r="BR16" s="6"/>
       <c r="BS16" s="6"/>
       <c r="BT16" s="6"/>
-      <c r="BU16" s="6"/>
+      <c r="BU16" s="11"/>
       <c r="BV16" s="6" t="s">
         <v>112</v>
       </c>
@@ -4661,7 +4624,7 @@
       <c r="BR17" s="6"/>
       <c r="BS17" s="6"/>
       <c r="BT17" s="6"/>
-      <c r="BU17" s="6"/>
+      <c r="BU17" s="11"/>
       <c r="BV17" s="6" t="s">
         <v>112</v>
       </c>
@@ -4821,7 +4784,7 @@
       <c r="BR18" s="6"/>
       <c r="BS18" s="6"/>
       <c r="BT18" s="6"/>
-      <c r="BU18" s="6"/>
+      <c r="BU18" s="11"/>
       <c r="BV18" s="6" t="s">
         <v>112</v>
       </c>
@@ -4981,7 +4944,7 @@
       <c r="BR19" s="6"/>
       <c r="BS19" s="6"/>
       <c r="BT19" s="6"/>
-      <c r="BU19" s="6"/>
+      <c r="BU19" s="11"/>
       <c r="BV19" s="6" t="s">
         <v>112</v>
       </c>
@@ -5141,7 +5104,7 @@
       <c r="BR20" s="6"/>
       <c r="BS20" s="6"/>
       <c r="BT20" s="6"/>
-      <c r="BU20" s="6"/>
+      <c r="BU20" s="11"/>
       <c r="BV20" s="6"/>
       <c r="BW20" s="6"/>
       <c r="BX20" s="6"/>
@@ -5283,7 +5246,7 @@
       <c r="BR21" s="6"/>
       <c r="BS21" s="6"/>
       <c r="BT21" s="6"/>
-      <c r="BU21" s="6"/>
+      <c r="BU21" s="11"/>
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BX21" s="6"/>
@@ -5425,7 +5388,7 @@
       <c r="BR22" s="6"/>
       <c r="BS22" s="6"/>
       <c r="BT22" s="6"/>
-      <c r="BU22" s="6"/>
+      <c r="BU22" s="11"/>
       <c r="BV22" s="6"/>
       <c r="BW22" s="6"/>
       <c r="BX22" s="6"/>
@@ -5567,7 +5530,7 @@
       <c r="BR23" s="6"/>
       <c r="BS23" s="6"/>
       <c r="BT23" s="6"/>
-      <c r="BU23" s="6"/>
+      <c r="BU23" s="11"/>
       <c r="BV23" s="6"/>
       <c r="BW23" s="6"/>
       <c r="BX23" s="6"/>
@@ -5709,7 +5672,7 @@
       <c r="BR24" s="6"/>
       <c r="BS24" s="6"/>
       <c r="BT24" s="6"/>
-      <c r="BU24" s="6"/>
+      <c r="BU24" s="11"/>
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BX24" s="6"/>
@@ -5851,7 +5814,7 @@
       <c r="BR25" s="6"/>
       <c r="BS25" s="6"/>
       <c r="BT25" s="6"/>
-      <c r="BU25" s="6"/>
+      <c r="BU25" s="11"/>
       <c r="BV25" s="6"/>
       <c r="BW25" s="6"/>
       <c r="BX25" s="6"/>
@@ -5993,7 +5956,7 @@
       <c r="BR26" s="6"/>
       <c r="BS26" s="6"/>
       <c r="BT26" s="6"/>
-      <c r="BU26" s="6"/>
+      <c r="BU26" s="11"/>
       <c r="BV26" s="6"/>
       <c r="BW26" s="6"/>
       <c r="BX26" s="6"/>
@@ -6135,7 +6098,7 @@
       <c r="BR27" s="6"/>
       <c r="BS27" s="6"/>
       <c r="BT27" s="6"/>
-      <c r="BU27" s="6"/>
+      <c r="BU27" s="11"/>
       <c r="BV27" s="6"/>
       <c r="BW27" s="6"/>
       <c r="BX27" s="6"/>
@@ -6275,7 +6238,7 @@
       <c r="BR28" s="6"/>
       <c r="BS28" s="6"/>
       <c r="BT28" s="6"/>
-      <c r="BU28" s="6"/>
+      <c r="BU28" s="11"/>
       <c r="BV28" s="6"/>
       <c r="BW28" s="6"/>
       <c r="BX28" s="6"/>
@@ -6417,7 +6380,7 @@
       <c r="BR29" s="6"/>
       <c r="BS29" s="6"/>
       <c r="BT29" s="6"/>
-      <c r="BU29" s="6"/>
+      <c r="BU29" s="11"/>
       <c r="BV29" s="6"/>
       <c r="BW29" s="6"/>
       <c r="BX29" s="6"/>
@@ -6559,7 +6522,7 @@
       <c r="BR30" s="6"/>
       <c r="BS30" s="6"/>
       <c r="BT30" s="6"/>
-      <c r="BU30" s="6"/>
+      <c r="BU30" s="11"/>
       <c r="BV30" s="6"/>
       <c r="BW30" s="6"/>
       <c r="BX30" s="6"/>
@@ -6701,7 +6664,7 @@
       <c r="BR31" s="6"/>
       <c r="BS31" s="6"/>
       <c r="BT31" s="6"/>
-      <c r="BU31" s="6"/>
+      <c r="BU31" s="11"/>
       <c r="BV31" s="6"/>
       <c r="BW31" s="6"/>
       <c r="BX31" s="6"/>
@@ -6843,7 +6806,7 @@
       <c r="BR32" s="6"/>
       <c r="BS32" s="6"/>
       <c r="BT32" s="6"/>
-      <c r="BU32" s="6"/>
+      <c r="BU32" s="11"/>
       <c r="BV32" s="6"/>
       <c r="BW32" s="6"/>
       <c r="BX32" s="6"/>
@@ -6985,7 +6948,7 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="6"/>
       <c r="BT33" s="6"/>
-      <c r="BU33" s="6"/>
+      <c r="BU33" s="11"/>
       <c r="BV33" s="6"/>
       <c r="BW33" s="6"/>
       <c r="BX33" s="6"/>
@@ -7127,7 +7090,7 @@
       <c r="BR34" s="6"/>
       <c r="BS34" s="6"/>
       <c r="BT34" s="6"/>
-      <c r="BU34" s="6"/>
+      <c r="BU34" s="11"/>
       <c r="BV34" s="6"/>
       <c r="BW34" s="6"/>
       <c r="BX34" s="6"/>
@@ -7267,7 +7230,7 @@
       <c r="BR35" s="6"/>
       <c r="BS35" s="6"/>
       <c r="BT35" s="6"/>
-      <c r="BU35" s="6"/>
+      <c r="BU35" s="11"/>
       <c r="BV35" s="6"/>
       <c r="BW35" s="6"/>
       <c r="BX35" s="6"/>
@@ -7407,7 +7370,7 @@
       <c r="BR36" s="6"/>
       <c r="BS36" s="6"/>
       <c r="BT36" s="6"/>
-      <c r="BU36" s="6"/>
+      <c r="BU36" s="11"/>
       <c r="BV36" s="6"/>
       <c r="BW36" s="6"/>
       <c r="BX36" s="6"/>
@@ -7547,7 +7510,7 @@
       <c r="BR37" s="6"/>
       <c r="BS37" s="6"/>
       <c r="BT37" s="6"/>
-      <c r="BU37" s="6"/>
+      <c r="BU37" s="11"/>
       <c r="BV37" s="6"/>
       <c r="BW37" s="6"/>
       <c r="BX37" s="6"/>
@@ -7687,7 +7650,7 @@
       <c r="BR38" s="6"/>
       <c r="BS38" s="6"/>
       <c r="BT38" s="6"/>
-      <c r="BU38" s="6"/>
+      <c r="BU38" s="11"/>
       <c r="BV38" s="6" t="s">
         <v>112</v>
       </c>
@@ -7847,7 +7810,7 @@
       <c r="BR39" s="6"/>
       <c r="BS39" s="6"/>
       <c r="BT39" s="6"/>
-      <c r="BU39" s="6"/>
+      <c r="BU39" s="11"/>
       <c r="BV39" s="6" t="s">
         <v>112</v>
       </c>
@@ -8007,7 +7970,7 @@
       <c r="BR40" s="6"/>
       <c r="BS40" s="6"/>
       <c r="BT40" s="6"/>
-      <c r="BU40" s="6"/>
+      <c r="BU40" s="11"/>
       <c r="BV40" s="6" t="s">
         <v>112</v>
       </c>
@@ -8167,7 +8130,7 @@
       <c r="BR41" s="6"/>
       <c r="BS41" s="6"/>
       <c r="BT41" s="6"/>
-      <c r="BU41" s="6"/>
+      <c r="BU41" s="11"/>
       <c r="BV41" s="6" t="s">
         <v>112</v>
       </c>
@@ -8327,7 +8290,7 @@
       <c r="BR42" s="6"/>
       <c r="BS42" s="6"/>
       <c r="BT42" s="6"/>
-      <c r="BU42" s="6"/>
+      <c r="BU42" s="11"/>
       <c r="BV42" s="6"/>
       <c r="BW42" s="6"/>
       <c r="BX42" s="6"/>
@@ -8469,7 +8432,7 @@
       <c r="BR43" s="6"/>
       <c r="BS43" s="6"/>
       <c r="BT43" s="6"/>
-      <c r="BU43" s="6"/>
+      <c r="BU43" s="11"/>
       <c r="BV43" s="6"/>
       <c r="BW43" s="6"/>
       <c r="BX43" s="6"/>
@@ -8611,7 +8574,7 @@
       <c r="BR44" s="6"/>
       <c r="BS44" s="6"/>
       <c r="BT44" s="6"/>
-      <c r="BU44" s="6"/>
+      <c r="BU44" s="11"/>
       <c r="BV44" s="6"/>
       <c r="BW44" s="6"/>
       <c r="BX44" s="6"/>
@@ -8753,7 +8716,7 @@
       <c r="BR45" s="6"/>
       <c r="BS45" s="6"/>
       <c r="BT45" s="6"/>
-      <c r="BU45" s="6"/>
+      <c r="BU45" s="11"/>
       <c r="BV45" s="6"/>
       <c r="BW45" s="6"/>
       <c r="BX45" s="6"/>
@@ -8895,7 +8858,7 @@
       <c r="BR46" s="6"/>
       <c r="BS46" s="6"/>
       <c r="BT46" s="6"/>
-      <c r="BU46" s="6"/>
+      <c r="BU46" s="11"/>
       <c r="BV46" s="6"/>
       <c r="BW46" s="6"/>
       <c r="BX46" s="6"/>
@@ -9037,7 +9000,7 @@
       <c r="BR47" s="6"/>
       <c r="BS47" s="6"/>
       <c r="BT47" s="6"/>
-      <c r="BU47" s="6"/>
+      <c r="BU47" s="11"/>
       <c r="BV47" s="6"/>
       <c r="BW47" s="6"/>
       <c r="BX47" s="6"/>
@@ -9179,7 +9142,7 @@
       <c r="BR48" s="6"/>
       <c r="BS48" s="6"/>
       <c r="BT48" s="6"/>
-      <c r="BU48" s="6"/>
+      <c r="BU48" s="11"/>
       <c r="BV48" s="6"/>
       <c r="BW48" s="6"/>
       <c r="BX48" s="6"/>
@@ -9321,7 +9284,7 @@
       <c r="BR49" s="6"/>
       <c r="BS49" s="6"/>
       <c r="BT49" s="6"/>
-      <c r="BU49" s="6"/>
+      <c r="BU49" s="11"/>
       <c r="BV49" s="6"/>
       <c r="BW49" s="6"/>
       <c r="BX49" s="6"/>
@@ -9461,7 +9424,7 @@
       <c r="BR50" s="6"/>
       <c r="BS50" s="6"/>
       <c r="BT50" s="6"/>
-      <c r="BU50" s="6"/>
+      <c r="BU50" s="11"/>
       <c r="BV50" s="6"/>
       <c r="BW50" s="6"/>
       <c r="BX50" s="6"/>
@@ -9603,7 +9566,7 @@
       <c r="BR51" s="6"/>
       <c r="BS51" s="6"/>
       <c r="BT51" s="6"/>
-      <c r="BU51" s="6"/>
+      <c r="BU51" s="11"/>
       <c r="BV51" s="6"/>
       <c r="BW51" s="6"/>
       <c r="BX51" s="6"/>
@@ -9745,7 +9708,7 @@
       <c r="BR52" s="6"/>
       <c r="BS52" s="6"/>
       <c r="BT52" s="6"/>
-      <c r="BU52" s="6"/>
+      <c r="BU52" s="11"/>
       <c r="BV52" s="6"/>
       <c r="BW52" s="6"/>
       <c r="BX52" s="6"/>
@@ -9887,7 +9850,7 @@
       <c r="BR53" s="6"/>
       <c r="BS53" s="6"/>
       <c r="BT53" s="6"/>
-      <c r="BU53" s="6"/>
+      <c r="BU53" s="11"/>
       <c r="BV53" s="6"/>
       <c r="BW53" s="6"/>
       <c r="BX53" s="6"/>
@@ -10029,7 +9992,7 @@
       <c r="BR54" s="6"/>
       <c r="BS54" s="6"/>
       <c r="BT54" s="6"/>
-      <c r="BU54" s="6"/>
+      <c r="BU54" s="11"/>
       <c r="BV54" s="6"/>
       <c r="BW54" s="6"/>
       <c r="BX54" s="6"/>
@@ -10171,7 +10134,7 @@
       <c r="BR55" s="6"/>
       <c r="BS55" s="6"/>
       <c r="BT55" s="6"/>
-      <c r="BU55" s="6"/>
+      <c r="BU55" s="11"/>
       <c r="BV55" s="6"/>
       <c r="BW55" s="6"/>
       <c r="BX55" s="6"/>
@@ -10313,7 +10276,7 @@
       <c r="BR56" s="6"/>
       <c r="BS56" s="6"/>
       <c r="BT56" s="6"/>
-      <c r="BU56" s="6"/>
+      <c r="BU56" s="11"/>
       <c r="BV56" s="6"/>
       <c r="BW56" s="6"/>
       <c r="BX56" s="6"/>
@@ -10453,7 +10416,7 @@
       <c r="BR57" s="6"/>
       <c r="BS57" s="6"/>
       <c r="BT57" s="6"/>
-      <c r="BU57" s="6"/>
+      <c r="BU57" s="11"/>
       <c r="BV57" s="6"/>
       <c r="BW57" s="6"/>
       <c r="BX57" s="6"/>
@@ -10593,7 +10556,7 @@
       <c r="BR58" s="6"/>
       <c r="BS58" s="6"/>
       <c r="BT58" s="6"/>
-      <c r="BU58" s="6"/>
+      <c r="BU58" s="11"/>
       <c r="BV58" s="6"/>
       <c r="BW58" s="6"/>
       <c r="BX58" s="6"/>
@@ -10733,7 +10696,7 @@
       <c r="BR59" s="6"/>
       <c r="BS59" s="6"/>
       <c r="BT59" s="6"/>
-      <c r="BU59" s="6"/>
+      <c r="BU59" s="11"/>
       <c r="BV59" s="6"/>
       <c r="BW59" s="6"/>
       <c r="BX59" s="6"/>
@@ -10905,7 +10868,7 @@
       <c r="BT60" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU60" s="6" t="s">
+      <c r="BU60" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV60" s="6" t="s">
@@ -11099,7 +11062,7 @@
       <c r="BT61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU61" s="6" t="s">
+      <c r="BU61" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV61" s="6" t="s">
@@ -11293,7 +11256,7 @@
       <c r="BT62" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU62" s="6" t="s">
+      <c r="BU62" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV62" s="6" t="s">
@@ -11487,7 +11450,7 @@
       <c r="BT63" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU63" s="6" t="s">
+      <c r="BU63" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV63" s="6" t="s">
@@ -11667,7 +11630,7 @@
       <c r="BR64" s="6"/>
       <c r="BS64" s="6"/>
       <c r="BT64" s="6"/>
-      <c r="BU64" s="6"/>
+      <c r="BU64" s="11"/>
       <c r="BV64" s="6"/>
       <c r="BW64" s="6"/>
       <c r="BX64" s="6"/>
@@ -11819,7 +11782,7 @@
       <c r="BR65" s="6"/>
       <c r="BS65" s="6"/>
       <c r="BT65" s="6"/>
-      <c r="BU65" s="6"/>
+      <c r="BU65" s="11"/>
       <c r="BV65" s="6"/>
       <c r="BW65" s="6"/>
       <c r="BX65" s="6"/>
@@ -11867,7 +11830,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -12019,7 +11982,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -12171,7 +12134,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -12275,7 +12238,7 @@
       <c r="BR68" s="11"/>
       <c r="BS68" s="11"/>
       <c r="BT68" s="11"/>
-      <c r="BU68" s="11"/>
+      <c r="BU68" s="14"/>
       <c r="BV68" s="11"/>
       <c r="BW68" s="11"/>
       <c r="BX68" s="11"/>
@@ -12323,7 +12286,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -12427,7 +12390,7 @@
       <c r="BR69" s="11"/>
       <c r="BS69" s="11"/>
       <c r="BT69" s="11"/>
-      <c r="BU69" s="11"/>
+      <c r="BU69" s="14"/>
       <c r="BV69" s="11"/>
       <c r="BW69" s="11"/>
       <c r="BX69" s="11"/>
@@ -12475,7 +12438,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -12579,7 +12542,7 @@
       <c r="BR70" s="13"/>
       <c r="BS70" s="13"/>
       <c r="BT70" s="13"/>
-      <c r="BU70" s="13"/>
+      <c r="BU70" s="14"/>
       <c r="BV70" s="13"/>
       <c r="BW70" s="13"/>
       <c r="BX70" s="13"/>
@@ -12627,7 +12590,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -12731,7 +12694,7 @@
       <c r="BR71" s="13"/>
       <c r="BS71" s="13"/>
       <c r="BT71" s="13"/>
-      <c r="BU71" s="13"/>
+      <c r="BU71" s="14"/>
       <c r="BV71" s="13"/>
       <c r="BW71" s="13"/>
       <c r="BX71" s="13"/>
@@ -12883,7 +12846,7 @@
       <c r="BR72" s="6"/>
       <c r="BS72" s="6"/>
       <c r="BT72" s="6"/>
-      <c r="BU72" s="6"/>
+      <c r="BU72" s="14"/>
       <c r="BV72" s="6"/>
       <c r="BW72" s="6"/>
       <c r="BX72" s="6"/>
@@ -12931,7 +12894,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -13083,7 +13046,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -13235,7 +13198,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -13387,7 +13350,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -13539,7 +13502,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -13691,7 +13654,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -13843,7 +13806,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -13995,7 +13958,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>112</v>
@@ -14195,7 +14158,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>112</v>
@@ -14511,7 +14474,7 @@
       <c r="BT82" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU82" s="6" t="s">
+      <c r="BU82" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV82" s="6" t="s">
@@ -14711,7 +14674,7 @@
       <c r="BT83" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU83" s="6" t="s">
+      <c r="BU83" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV83" s="6" t="s">
@@ -14911,7 +14874,7 @@
       <c r="BT84" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU84" s="6" t="s">
+      <c r="BU84" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV84" s="6" t="s">
@@ -15111,7 +15074,7 @@
       <c r="BT85" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU85" s="6" t="s">
+      <c r="BU85" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV85" s="6" t="s">
@@ -15195,7 +15158,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>112</v>
@@ -15395,7 +15358,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>112</v>
@@ -15711,7 +15674,7 @@
       <c r="BT88" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU88" s="6" t="s">
+      <c r="BU88" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV88" s="6" t="s">
@@ -15911,7 +15874,7 @@
       <c r="BT89" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU89" s="6" t="s">
+      <c r="BU89" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV89" s="6" t="s">
@@ -16111,7 +16074,7 @@
       <c r="BT90" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU90" s="6" t="s">
+      <c r="BU90" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV90" s="6" t="s">
@@ -16311,7 +16274,7 @@
       <c r="BT91" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU91" s="6" t="s">
+      <c r="BU91" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV91" s="6" t="s">
@@ -16511,7 +16474,7 @@
       <c r="BT92" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU92" s="6" t="s">
+      <c r="BU92" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV92" s="6" t="s">
@@ -16711,7 +16674,7 @@
       <c r="BT93" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU93" s="6" t="s">
+      <c r="BU93" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV93" s="6" t="s">
@@ -16911,7 +16874,7 @@
       <c r="BT94" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU94" s="6" t="s">
+      <c r="BU94" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV94" s="6" t="s">
@@ -17111,7 +17074,7 @@
       <c r="BT95" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU95" s="6" t="s">
+      <c r="BU95" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV95" s="6" t="s">
@@ -17311,7 +17274,7 @@
       <c r="BT96" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="BU96" s="6" t="s">
+      <c r="BU96" s="11" t="s">
         <v>112</v>
       </c>
       <c r="BV96" s="6" t="s">
@@ -17467,7 +17430,7 @@
       <c r="BR97" s="6"/>
       <c r="BS97" s="6"/>
       <c r="BT97" s="6"/>
-      <c r="BU97" s="6"/>
+      <c r="BU97" s="11"/>
       <c r="BV97" s="6"/>
       <c r="BW97" s="6"/>
       <c r="BX97" s="6"/>
@@ -17643,7 +17606,7 @@
       <c r="BR98" s="6"/>
       <c r="BS98" s="6"/>
       <c r="BT98" s="6"/>
-      <c r="BU98" s="6"/>
+      <c r="BU98" s="11"/>
       <c r="BV98" s="6"/>
       <c r="BW98" s="6"/>
       <c r="BX98" s="6"/>
@@ -17819,7 +17782,7 @@
       <c r="BR99" s="6"/>
       <c r="BS99" s="6"/>
       <c r="BT99" s="6"/>
-      <c r="BU99" s="6"/>
+      <c r="BU99" s="11"/>
       <c r="BV99" s="6"/>
       <c r="BW99" s="6"/>
       <c r="BX99" s="6"/>
@@ -17995,7 +17958,7 @@
       <c r="BR100" s="6"/>
       <c r="BS100" s="6"/>
       <c r="BT100" s="6"/>
-      <c r="BU100" s="6"/>
+      <c r="BU100" s="11"/>
       <c r="BV100" s="6"/>
       <c r="BW100" s="6"/>
       <c r="BX100" s="6"/>
@@ -18171,7 +18134,7 @@
       <c r="BR101" s="6"/>
       <c r="BS101" s="6"/>
       <c r="BT101" s="6"/>
-      <c r="BU101" s="6"/>
+      <c r="BU101" s="11"/>
       <c r="BV101" s="6"/>
       <c r="BW101" s="6"/>
       <c r="BX101" s="6"/>
@@ -18347,7 +18310,7 @@
       <c r="BR102" s="6"/>
       <c r="BS102" s="6"/>
       <c r="BT102" s="6"/>
-      <c r="BU102" s="6"/>
+      <c r="BU102" s="11"/>
       <c r="BV102" s="6"/>
       <c r="BW102" s="6"/>
       <c r="BX102" s="6"/>
@@ -18523,7 +18486,7 @@
       <c r="BR103" s="6"/>
       <c r="BS103" s="6"/>
       <c r="BT103" s="6"/>
-      <c r="BU103" s="6"/>
+      <c r="BU103" s="11"/>
       <c r="BV103" s="6"/>
       <c r="BW103" s="6"/>
       <c r="BX103" s="6"/>
@@ -18699,7 +18662,7 @@
       <c r="BR104" s="6"/>
       <c r="BS104" s="6"/>
       <c r="BT104" s="6"/>
-      <c r="BU104" s="6"/>
+      <c r="BU104" s="11"/>
       <c r="BV104" s="6"/>
       <c r="BW104" s="6"/>
       <c r="BX104" s="6"/>
@@ -18875,7 +18838,7 @@
       <c r="BR105" s="6"/>
       <c r="BS105" s="6"/>
       <c r="BT105" s="6"/>
-      <c r="BU105" s="6"/>
+      <c r="BU105" s="11"/>
       <c r="BV105" s="6"/>
       <c r="BW105" s="6"/>
       <c r="BX105" s="6"/>
@@ -19051,7 +19014,7 @@
       <c r="BR106" s="6"/>
       <c r="BS106" s="6"/>
       <c r="BT106" s="6"/>
-      <c r="BU106" s="6"/>
+      <c r="BU106" s="11"/>
       <c r="BV106" s="6"/>
       <c r="BW106" s="6"/>
       <c r="BX106" s="6"/>
@@ -19227,7 +19190,7 @@
       <c r="BR107" s="6"/>
       <c r="BS107" s="6"/>
       <c r="BT107" s="6"/>
-      <c r="BU107" s="6"/>
+      <c r="BU107" s="11"/>
       <c r="BV107" s="6"/>
       <c r="BW107" s="6"/>
       <c r="BX107" s="6"/>
@@ -19403,7 +19366,7 @@
       <c r="BR108" s="6"/>
       <c r="BS108" s="6"/>
       <c r="BT108" s="6"/>
-      <c r="BU108" s="6"/>
+      <c r="BU108" s="11"/>
       <c r="BV108" s="6"/>
       <c r="BW108" s="6"/>
       <c r="BX108" s="6"/>
@@ -19579,7 +19542,7 @@
       <c r="BR109" s="6"/>
       <c r="BS109" s="6"/>
       <c r="BT109" s="6"/>
-      <c r="BU109" s="6"/>
+      <c r="BU109" s="11"/>
       <c r="BV109" s="6"/>
       <c r="BW109" s="6"/>
       <c r="BX109" s="6"/>
@@ -19755,7 +19718,7 @@
       <c r="BR110" s="6"/>
       <c r="BS110" s="6"/>
       <c r="BT110" s="6"/>
-      <c r="BU110" s="6"/>
+      <c r="BU110" s="11"/>
       <c r="BV110" s="6"/>
       <c r="BW110" s="6"/>
       <c r="BX110" s="6"/>
@@ -19931,7 +19894,7 @@
       <c r="BR111" s="6"/>
       <c r="BS111" s="6"/>
       <c r="BT111" s="6"/>
-      <c r="BU111" s="6"/>
+      <c r="BU111" s="11"/>
       <c r="BV111" s="6"/>
       <c r="BW111" s="6"/>
       <c r="BX111" s="6"/>
@@ -20107,7 +20070,7 @@
       <c r="BR112" s="6"/>
       <c r="BS112" s="6"/>
       <c r="BT112" s="6"/>
-      <c r="BU112" s="6"/>
+      <c r="BU112" s="11"/>
       <c r="BV112" s="6"/>
       <c r="BW112" s="6"/>
       <c r="BX112" s="6"/>
@@ -20283,7 +20246,7 @@
       <c r="BR113" s="6"/>
       <c r="BS113" s="6"/>
       <c r="BT113" s="6"/>
-      <c r="BU113" s="6"/>
+      <c r="BU113" s="11"/>
       <c r="BV113" s="6"/>
       <c r="BW113" s="6"/>
       <c r="BX113" s="6"/>
@@ -20459,7 +20422,7 @@
       <c r="BR114" s="6"/>
       <c r="BS114" s="6"/>
       <c r="BT114" s="6"/>
-      <c r="BU114" s="6"/>
+      <c r="BU114" s="11"/>
       <c r="BV114" s="6"/>
       <c r="BW114" s="6"/>
       <c r="BX114" s="6"/>
@@ -20635,7 +20598,7 @@
       <c r="BR115" s="6"/>
       <c r="BS115" s="6"/>
       <c r="BT115" s="6"/>
-      <c r="BU115" s="6"/>
+      <c r="BU115" s="11"/>
       <c r="BV115" s="6"/>
       <c r="BW115" s="6"/>
       <c r="BX115" s="6"/>
@@ -20811,7 +20774,7 @@
       <c r="BR116" s="6"/>
       <c r="BS116" s="6"/>
       <c r="BT116" s="6"/>
-      <c r="BU116" s="6"/>
+      <c r="BU116" s="11"/>
       <c r="BV116" s="6"/>
       <c r="BW116" s="6"/>
       <c r="BX116" s="6"/>
@@ -20987,7 +20950,7 @@
       <c r="BR117" s="6"/>
       <c r="BS117" s="6"/>
       <c r="BT117" s="6"/>
-      <c r="BU117" s="6"/>
+      <c r="BU117" s="11"/>
       <c r="BV117" s="6"/>
       <c r="BW117" s="6"/>
       <c r="BX117" s="6"/>
@@ -21163,7 +21126,7 @@
       <c r="BR118" s="6"/>
       <c r="BS118" s="6"/>
       <c r="BT118" s="6"/>
-      <c r="BU118" s="6"/>
+      <c r="BU118" s="11"/>
       <c r="BV118" s="6"/>
       <c r="BW118" s="6"/>
       <c r="BX118" s="6"/>
@@ -21339,7 +21302,7 @@
       <c r="BR119" s="6"/>
       <c r="BS119" s="6"/>
       <c r="BT119" s="6"/>
-      <c r="BU119" s="6"/>
+      <c r="BU119" s="11"/>
       <c r="BV119" s="6"/>
       <c r="BW119" s="6"/>
       <c r="BX119" s="6"/>
@@ -21515,7 +21478,7 @@
       <c r="BR120" s="6"/>
       <c r="BS120" s="6"/>
       <c r="BT120" s="6"/>
-      <c r="BU120" s="6"/>
+      <c r="BU120" s="11"/>
       <c r="BV120" s="6"/>
       <c r="BW120" s="6"/>
       <c r="BX120" s="6"/>
@@ -21705,7 +21668,7 @@
       <c r="BR121" s="6"/>
       <c r="BS121" s="6"/>
       <c r="BT121" s="6"/>
-      <c r="BU121" s="6"/>
+      <c r="BU121" s="11"/>
       <c r="BV121" s="6" t="s">
         <v>112</v>
       </c>
@@ -21859,7 +21822,7 @@
       <c r="BR122" s="6"/>
       <c r="BS122" s="6"/>
       <c r="BT122" s="6"/>
-      <c r="BU122" s="6"/>
+      <c r="BU122" s="11"/>
       <c r="BV122" s="6" t="s">
         <v>112</v>
       </c>
@@ -22013,7 +21976,7 @@
       <c r="BR123" s="6"/>
       <c r="BS123" s="6"/>
       <c r="BT123" s="6"/>
-      <c r="BU123" s="6"/>
+      <c r="BU123" s="11"/>
       <c r="BV123" s="6" t="s">
         <v>112</v>
       </c>
@@ -22167,7 +22130,7 @@
       <c r="BR124" s="6"/>
       <c r="BS124" s="6"/>
       <c r="BT124" s="6"/>
-      <c r="BU124" s="6"/>
+      <c r="BU124" s="11"/>
       <c r="BV124" s="6" t="s">
         <v>112</v>
       </c>
@@ -22321,7 +22284,7 @@
       <c r="BR125" s="6"/>
       <c r="BS125" s="6"/>
       <c r="BT125" s="6"/>
-      <c r="BU125" s="6"/>
+      <c r="BU125" s="11"/>
       <c r="BV125" s="6" t="s">
         <v>112</v>
       </c>
@@ -22475,7 +22438,7 @@
       <c r="BR126" s="6"/>
       <c r="BS126" s="6"/>
       <c r="BT126" s="6"/>
-      <c r="BU126" s="6"/>
+      <c r="BU126" s="11"/>
       <c r="BV126" s="6" t="s">
         <v>112</v>
       </c>
@@ -22629,7 +22592,7 @@
       <c r="BR127" s="6"/>
       <c r="BS127" s="6"/>
       <c r="BT127" s="6"/>
-      <c r="BU127" s="6"/>
+      <c r="BU127" s="11"/>
       <c r="BV127" s="6" t="s">
         <v>112</v>
       </c>
@@ -22783,7 +22746,7 @@
       <c r="BR128" s="6"/>
       <c r="BS128" s="6"/>
       <c r="BT128" s="6"/>
-      <c r="BU128" s="6"/>
+      <c r="BU128" s="11"/>
       <c r="BV128" s="6" t="s">
         <v>112</v>
       </c>
@@ -22937,7 +22900,7 @@
       <c r="BR129" s="6"/>
       <c r="BS129" s="6"/>
       <c r="BT129" s="6"/>
-      <c r="BU129" s="6"/>
+      <c r="BU129" s="11"/>
       <c r="BV129" s="6" t="s">
         <v>112</v>
       </c>
@@ -23097,7 +23060,7 @@
       <c r="BR130" s="6"/>
       <c r="BS130" s="6"/>
       <c r="BT130" s="6"/>
-      <c r="BU130" s="6"/>
+      <c r="BU130" s="11"/>
       <c r="BV130" s="6" t="s">
         <v>112</v>
       </c>
@@ -23167,7 +23130,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
